--- a/metrics/MAPE/Ceguera.xlsx
+++ b/metrics/MAPE/Ceguera.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03400109159205005</v>
+        <v>0.03299100410245547</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03378188602068685</v>
+        <v>0.03509343290161347</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03368307551852335</v>
+        <v>0.03351395295910102</v>
       </c>
     </row>
     <row r="4">
@@ -497,7 +497,7 @@
         <v>0.03337245194201802</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03337245194201802</v>
+        <v>0.033372451942018</v>
       </c>
       <c r="D4" t="n">
         <v>0.03337245194201802</v>
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05899709030493935</v>
+        <v>0.05856157327945263</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05804418083316767</v>
+        <v>0.05791343948902639</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05823517117973503</v>
+        <v>0.06176581628842315</v>
       </c>
     </row>
   </sheetData>
